--- a/data/trans_camb/P23_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,67</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,65</t>
+          <t>-8,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-4,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,73</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,57</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,51; -4,27</t>
+          <t>-25,05; 4,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 6,89</t>
+          <t>-26,9; 2,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 5,38</t>
+          <t>-21,36; 8,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 10,49</t>
+          <t>-21,2; 1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -2,25</t>
+          <t>-15,64; 12,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 5,95</t>
+          <t>-17,42; 8,99</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-17,74; 0,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-14,13; 4,22</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 4,27</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-89,28%</t>
+          <t>-63,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-46,83%</t>
+          <t>-74,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-34,35%</t>
+          <t>-41,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>-67,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-67,99%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-33,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-66,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-38,71%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-37,38%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -6,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,36; 134,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,66; 162,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,44; 268,71</t>
+          <t>-100,0; 77,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,27; -18,86</t>
+          <t>-79,69; 218,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,9; 87,56</t>
+          <t>-87,14; 200,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-92,98; 73,53</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-78,34; 80,3</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-80,27; 75,1</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>8,8</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 6,74</t>
+          <t>-8,71; 9,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 29,24</t>
+          <t>-0,69; 45,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 18,76</t>
+          <t>-2,2; 48,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 9,06</t>
+          <t>-7,22; 24,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 9,64</t>
+          <t>-15,7; 13,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 13,76</t>
+          <t>-10,09; 22,28</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 12,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 26,67</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 32,25</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,17%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>331,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>305,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,34%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>-9,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56,59%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77,89%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-89,59; 261,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; 933,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 112,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,83; 55,76</t>
+          <t>-34,83; 189,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 81,78</t>
+          <t>-61,73; 130,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 118,98</t>
+          <t>-40,1; 198,6</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,56; 174,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-33,3; 359,24</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-27,81; 373,7</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 23,05</t>
+          <t>-13,28; 18,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 19,99</t>
+          <t>-17,65; 13,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 12,72</t>
+          <t>-5,27; 27,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 11,55</t>
+          <t>-7,66; 16,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 13,58</t>
+          <t>-9,66; 14,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 11,53</t>
+          <t>-17,73; 6,37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 13,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 10,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,29; 10,57</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>-23,06%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 170,65</t>
+          <t>-44,0; 129,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 141,36</t>
+          <t>-60,0; 95,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 65,1</t>
+          <t>-18,78; 200,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 58,04</t>
+          <t>-24,74; 89,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 72,41</t>
+          <t>-31,52; 85,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 63,17</t>
+          <t>-56,74; 36,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; 70,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-33,61; 55,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,05; 54,33</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 14,42</t>
+          <t>0,48; 23,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 9,12</t>
+          <t>-5,13; 15,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 13,59</t>
+          <t>3,1; 26,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 10,94</t>
+          <t>-8,78; 19,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 10,36</t>
+          <t>-18,04; 10,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 6,84</t>
+          <t>-14,02; 12,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 17,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,08; 9,27</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 15,5</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>127,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>155,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,81%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 165,16</t>
+          <t>-7,05; 472,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 95,61</t>
+          <t>-41,9; 288,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 49,93</t>
+          <t>13,39; 533,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 42,12</t>
+          <t>-20,02; 61,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 53,69</t>
+          <t>-39,16; 31,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 34,71</t>
+          <t>-31,69; 40,86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 83,38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-29,22; 44,47</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-13,38; 72,36</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>19,62</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>5,01</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>8,51</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>15,36</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 13,17</t>
+          <t>-12,1; 14,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 18,85</t>
+          <t>-7,12; 24,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 23,53</t>
+          <t>3,12; 35,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 11,16</t>
+          <t>-14,4; 24,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 15,28</t>
+          <t>-25,52; 11,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 10,58</t>
+          <t>-11,72; 27,0</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-8,39; 15,54</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-10,48; 13,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 29,07</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>38,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>121,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>-22,78%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>24,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63,61%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 124,12</t>
+          <t>-53,35; 143,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 195,76</t>
+          <t>-38,35; 260,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 111,67</t>
+          <t>8,96; 348,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,28; 52,03</t>
+          <t>-31,64; 101,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 87,27</t>
+          <t>-59,09; 43,6</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 61,6</t>
+          <t>-26,55; 113,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; 85,48</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-38,67; 71,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 166,37</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-9,04</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>30,47</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21,53</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 8,39</t>
+          <t>-16,25; 18,69</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 10,43</t>
+          <t>-19,89; 11,33</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 8,86</t>
+          <t>-9,16; 28,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 6,82</t>
+          <t>-16,88; 19,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,87</t>
+          <t>-20,64; 13,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 4,7</t>
+          <t>7,79; 54,31</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 13,34</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-15,89; 6,76</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 37,97</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-17,24%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>-27,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-32,39%</t>
+          <t>-0,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>128,98%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-19,01%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>103,77%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,06; 104,63</t>
+          <t>-67,8; 245,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-61,99; 116,77</t>
+          <t>-80,36; 193,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 45,62</t>
+          <t>-41,04; 424,31</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-68,61; 33,59</t>
+          <t>-56,32; 141,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,58; 29,85</t>
+          <t>-63,55; 88,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 29,35</t>
+          <t>19,06; 393,29</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-52,22; 89,23</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-58,94; 50,84</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>13,68; 239,61</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>5,18</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 5,2</t>
+          <t>-3,88; 7,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,04</t>
+          <t>-4,06; 9,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 6,87</t>
+          <t>3,52; 19,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 2,54</t>
+          <t>-4,11; 8,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 4,35</t>
+          <t>-8,24; 4,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,65</t>
+          <t>-1,17; 13,12</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 6,94</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-5,05; 4,32</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 13,06</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,29%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>-8,54%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 41,84</t>
+          <t>-23,06; 74,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 49,09</t>
+          <t>-27,57; 89,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 31,47</t>
+          <t>20,12; 175,35</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 11,2</t>
+          <t>-14,49; 36,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 23,88</t>
+          <t>-28,34; 17,93</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 14,93</t>
+          <t>-4,57; 55,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 37,42</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-22,74; 23,79</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 71,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
